--- a/keyword distribution cumulative frequency.xlsx
+++ b/keyword distribution cumulative frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulcampus-my.sharepoint.com/personal/23085851_studentmail_ul_ie/Documents/Sociology and Data Analytics/Dissertation/Research Implementation/Chapters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_4121B84554762A0F62355476585DCE3A8747C331" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56E44573-2FE8-47EA-8F9F-C9B5D118C2E4}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_4121B84554762A0F62355476585DCE3A8747C331" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14F4CC19-FBDF-4C4A-BF81-7B0D03D2C104}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
   <si>
     <t>keyword query</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>topics</t>
-  </si>
-  <si>
-    <t>intepretive themes</t>
   </si>
   <si>
     <t>The social group defined by common racial, cultural, or national characteristics.</t>
@@ -855,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -868,11 +865,10 @@
     <col min="3" max="3" width="9.06640625" style="5"/>
     <col min="4" max="4" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.46484375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.53125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="12"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -886,14 +882,11 @@
       <c r="E1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -909,11 +902,11 @@
       <c r="E2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -929,11 +922,11 @@
       <c r="E3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F3" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -949,11 +942,11 @@
       <c r="E4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -969,11 +962,11 @@
       <c r="E5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F5" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -989,11 +982,11 @@
       <c r="E6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1009,11 +1002,11 @@
       <c r="E7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F7" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1029,11 +1022,11 @@
       <c r="E8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F8" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1049,11 +1042,11 @@
       <c r="E9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1069,11 +1062,11 @@
       <c r="E10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F10" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1089,11 +1082,11 @@
       <c r="E11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F11" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1109,11 +1102,11 @@
       <c r="E12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F12" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1129,11 +1122,11 @@
       <c r="E13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F13" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1149,11 +1142,11 @@
       <c r="E14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F14" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1169,11 +1162,11 @@
       <c r="E15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F15" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1189,11 +1182,11 @@
       <c r="E16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F16" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1209,11 +1202,11 @@
       <c r="E17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F17" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1229,11 +1222,11 @@
       <c r="E18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F18" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1249,11 +1242,11 @@
       <c r="E19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F19" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1269,11 +1262,11 @@
       <c r="E20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F20" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1289,11 +1282,11 @@
       <c r="E21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F21" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1309,11 +1302,11 @@
       <c r="E22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F22" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1329,11 +1322,11 @@
       <c r="E23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F23" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1349,11 +1342,11 @@
       <c r="E24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F24" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1369,11 +1362,11 @@
       <c r="E25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F25" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1389,11 +1382,11 @@
       <c r="E26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F26" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1409,11 +1402,11 @@
       <c r="E27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F27" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1429,11 +1422,11 @@
       <c r="E28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F28" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1449,11 +1442,11 @@
       <c r="E29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F29" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1469,11 +1462,11 @@
       <c r="E30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F30" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1489,11 +1482,11 @@
       <c r="E31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="F31" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1509,11 +1502,11 @@
       <c r="E32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F32" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -1529,11 +1522,11 @@
       <c r="E33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F33" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -1549,11 +1542,11 @@
       <c r="E34" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F34" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -1569,11 +1562,11 @@
       <c r="E35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F35" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -1589,11 +1582,11 @@
       <c r="E36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F36" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -1609,11 +1602,11 @@
       <c r="E37" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F37" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -1629,11 +1622,11 @@
       <c r="E38" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="F38" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -1649,11 +1642,11 @@
       <c r="E39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F39" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -1669,11 +1662,11 @@
       <c r="E40" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F40" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -1689,11 +1682,11 @@
       <c r="E41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F41" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -1709,11 +1702,11 @@
       <c r="E42" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="F42" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -1729,11 +1722,11 @@
       <c r="E43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F43" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -1749,11 +1742,11 @@
       <c r="E44" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F44" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -1769,11 +1762,11 @@
       <c r="E45" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F45" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -1789,11 +1782,11 @@
       <c r="E46" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F46" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -1810,7 +1803,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -1826,11 +1819,11 @@
       <c r="E48" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F48" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -1846,11 +1839,11 @@
       <c r="E49" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F49" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -1867,7 +1860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -1884,7 +1877,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -1900,11 +1893,11 @@
       <c r="E52" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F52" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -1920,11 +1913,11 @@
       <c r="E53" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F53" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -1941,7 +1934,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -1958,7 +1951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -1974,11 +1967,11 @@
       <c r="E56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F56" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -1994,11 +1987,11 @@
       <c r="E57" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F57" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -2015,7 +2008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -2031,11 +2024,11 @@
       <c r="E59" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F59" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -2051,11 +2044,11 @@
       <c r="E60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F60" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -2071,8 +2064,8 @@
       <c r="E61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>124</v>
+      <c r="F61" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
